--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K233"/>
+  <dimension ref="A1:K235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -944,7 +944,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Lite Storm Slim Bivolt</t>
+          <t>Fonte Carregador Jfa 120a Lite Storm Sli</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 90 Amperes Bivo</t>
+          <t>Fonte Carregador Jfa Bob 90 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3198,7 +3198,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob 90 Amperes Bivo</t>
+          <t>Fonte Carregador Jfa Bob 90 Amperes Bivolt Inteligente Full</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Bivolt Bob Storm 120a Digital Jfa</t>
+          <t>Fonte Carregador Bateria Bivolt Bob Stor</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bateria Bivolt Bob Storm 120a Digital Jfa</t>
+          <t>Fonte Carregador Bateria Bivolt Bob Stor</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -5819,7 +5819,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>FONTE BOB 120A</t>
+          <t>OUTROS</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Controle Longa Distância Jfa Acqua 1200</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -9323,7 +9323,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distânci</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -10303,7 +10303,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distânci</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -11855,6 +11855,104 @@
         </is>
       </c>
       <c r="K233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>28-11-2024</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_612246-MLB77270307729_062024-I.jpg</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Voltímetro Sequenciador Automotivo Digital Vs5hi Jfa</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>TAMANDARÉ</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>7</v>
+      </c>
+      <c r="G234" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="H234" t="n">
+        <v>440.3</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>OUTROS</t>
+        </is>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>DENTRO</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>28-11-2024</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_887792-MLB71828660160_092023-I.jpg</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>clássico</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>KOALA PARTS</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>1</v>
+      </c>
+      <c r="G235" t="n">
+        <v>345.66</v>
+      </c>
+      <c r="H235" t="n">
+        <v>345.66</v>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>FONTE LITE 70A</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>DENTRO</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
         <v>0</v>
       </c>
     </row>
